--- a/AmazonFramework/src/main/resources/testdata/Batchno4.xlsx
+++ b/AmazonFramework/src/main/resources/testdata/Batchno4.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0980efa39f42a25f/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CDB751-1E0F-4083-AD40-62D8576F4CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0966B6FB-9E29-4B4D-BE79-2E444A9E8066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7608" yWindow="2340" windowWidth="16368" windowHeight="8880" xr2:uid="{852DD4C6-0CA8-4BBE-B5A2-7CF71294BED7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{852DD4C6-0CA8-4BBE-B5A2-7CF71294BED7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,20 +29,28 @@
     <t>PassWord</t>
   </si>
   <si>
-    <t>bharath@marolix.com</t>
+    <t>gangadharmarolix@gmail.com</t>
   </si>
   <si>
-    <t>QyuQH@@N</t>
+    <t>JpAyaUML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +73,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,7 +398,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +416,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -417,6 +424,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E53BFA97-228E-4E17-AD7A-BCACE966B6E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>